--- a/Experiment/xEngine/result/result.xlsx
+++ b/Experiment/xEngine/result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XACML_Optimized_Matching\Experiment\xEngine\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06624902-4A15-49DB-812A-D63E6FAD851A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDBB28C7-5E48-41DF-82B2-A775495EF4CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="8655" xr2:uid="{D1E72D46-9D26-4A2E-8EB9-B0343D8E1836}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,34 +488,34 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.51587400000000005</v>
+        <v>87</v>
       </c>
       <c r="C3">
-        <v>0.64962500000000001</v>
+        <v>275</v>
       </c>
       <c r="D3">
-        <v>0.738819</v>
+        <v>295</v>
       </c>
       <c r="E3">
-        <v>0.91846700000000003</v>
+        <v>389</v>
       </c>
       <c r="F3">
-        <v>1.0823830000000001</v>
+        <v>431</v>
       </c>
       <c r="G3">
-        <v>1.307895</v>
+        <v>447</v>
       </c>
       <c r="H3">
-        <v>1.4869000000000001</v>
+        <v>585</v>
       </c>
       <c r="I3">
-        <v>1.7070419999999999</v>
+        <v>595</v>
       </c>
       <c r="J3">
-        <v>1.88635</v>
+        <v>737</v>
       </c>
       <c r="K3">
-        <v>2.2744260000000001</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -523,34 +523,34 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.54886699999999999</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>0.55787100000000001</v>
+        <v>288</v>
       </c>
       <c r="D4">
-        <v>0.72180299999999997</v>
+        <v>273</v>
       </c>
       <c r="E4">
-        <v>0.92359500000000005</v>
+        <v>448</v>
       </c>
       <c r="F4">
-        <v>1.055447</v>
+        <v>391</v>
       </c>
       <c r="G4">
-        <v>1.2832300000000001</v>
+        <v>493</v>
       </c>
       <c r="H4">
-        <v>1.536616</v>
+        <v>629</v>
       </c>
       <c r="I4">
-        <v>1.8853310000000001</v>
+        <v>593</v>
       </c>
       <c r="J4">
-        <v>1.908121</v>
+        <v>779</v>
       </c>
       <c r="K4">
-        <v>2.1481080000000001</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -558,34 +558,34 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.505911</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>0.59670100000000004</v>
+        <v>265</v>
       </c>
       <c r="D5">
-        <v>0.74843599999999999</v>
+        <v>354</v>
       </c>
       <c r="E5">
-        <v>0.930002</v>
+        <v>411</v>
       </c>
       <c r="F5">
-        <v>1.078837</v>
+        <v>468</v>
       </c>
       <c r="G5">
-        <v>1.341928</v>
+        <v>563</v>
       </c>
       <c r="H5">
-        <v>1.5099959999999999</v>
+        <v>528</v>
       </c>
       <c r="I5">
-        <v>1.7156229999999999</v>
+        <v>628</v>
       </c>
       <c r="J5">
-        <v>2.0377429999999999</v>
+        <v>664</v>
       </c>
       <c r="K5">
-        <v>2.1401289999999999</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -593,34 +593,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.53575499999999998</v>
+        <v>103</v>
       </c>
       <c r="C6">
-        <v>0.53156800000000004</v>
+        <v>198</v>
       </c>
       <c r="D6">
-        <v>0.74071600000000004</v>
+        <v>353</v>
       </c>
       <c r="E6">
-        <v>0.96428499999999995</v>
+        <v>394</v>
       </c>
       <c r="F6">
-        <v>1.1086670000000001</v>
+        <v>471</v>
       </c>
       <c r="G6">
-        <v>1.3069710000000001</v>
+        <v>498</v>
       </c>
       <c r="H6">
-        <v>1.577718</v>
+        <v>605</v>
       </c>
       <c r="I6">
-        <v>1.744545</v>
+        <v>654</v>
       </c>
       <c r="J6">
-        <v>1.9960370000000001</v>
+        <v>708</v>
       </c>
       <c r="K6">
-        <v>2.339296</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -628,34 +628,34 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.50878000000000001</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>0.51359699999999997</v>
+        <v>226</v>
       </c>
       <c r="D7">
-        <v>0.73752799999999996</v>
+        <v>271</v>
       </c>
       <c r="E7">
-        <v>0.97944799999999999</v>
+        <v>423</v>
       </c>
       <c r="F7">
-        <v>1.0849610000000001</v>
+        <v>438</v>
       </c>
       <c r="G7">
-        <v>1.313714</v>
+        <v>627</v>
       </c>
       <c r="H7">
-        <v>1.529523</v>
+        <v>502</v>
       </c>
       <c r="I7">
-        <v>1.7355830000000001</v>
+        <v>580</v>
       </c>
       <c r="J7">
-        <v>2.006338</v>
+        <v>714</v>
       </c>
       <c r="K7">
-        <v>2.1872029999999998</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -664,43 +664,43 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:K8" si="0">AVERAGE(B3:B7)</f>
-        <v>0.52303739999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.56987239999999995</v>
+        <v>250.4</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.73746040000000002</v>
+        <v>309.2</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.94315940000000009</v>
+        <v>413</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.0820589999999999</v>
+        <v>439.8</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.3107476</v>
+        <f>AVERAGE(G3:G7)</f>
+        <v>525.6</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.5281506</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1.7576247999999999</v>
+        <f>AVERAGE(I3:I7)</f>
+        <v>610</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>1.9669177999999998</v>
+        <f>AVERAGE(J3:J7)</f>
+        <v>720.4</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.2178324000000003</v>
+        <v>760.2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -748,34 +748,34 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.48698599999999997</v>
+        <v>131</v>
       </c>
       <c r="C12">
-        <v>0.50462200000000001</v>
+        <v>188</v>
       </c>
       <c r="D12">
-        <v>0.771841</v>
+        <v>274</v>
       </c>
       <c r="E12">
-        <v>0.90627199999999997</v>
+        <v>428</v>
       </c>
       <c r="F12">
-        <v>1.0941369999999999</v>
+        <v>417</v>
       </c>
       <c r="G12">
-        <v>1.417665</v>
+        <v>475</v>
       </c>
       <c r="H12">
-        <v>1.5218860000000001</v>
+        <v>508</v>
       </c>
       <c r="I12">
-        <v>1.7887999999999999</v>
+        <v>578</v>
       </c>
       <c r="J12">
-        <v>2.0412520000000001</v>
+        <v>699</v>
       </c>
       <c r="K12">
-        <v>2.4377260000000001</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,34 +783,34 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.53926700000000005</v>
+        <v>126</v>
       </c>
       <c r="C13">
-        <v>0.56173799999999996</v>
+        <v>183</v>
       </c>
       <c r="D13">
-        <v>0.77378100000000005</v>
+        <v>268</v>
       </c>
       <c r="E13">
-        <v>1.0731269999999999</v>
+        <v>444</v>
       </c>
       <c r="F13">
-        <v>1.072443</v>
+        <v>390</v>
       </c>
       <c r="G13">
-        <v>1.4599679999999999</v>
+        <v>448</v>
       </c>
       <c r="H13">
-        <v>1.528314</v>
+        <v>534</v>
       </c>
       <c r="I13">
-        <v>1.9806250000000001</v>
+        <v>589</v>
       </c>
       <c r="J13">
-        <v>1.9617089999999999</v>
+        <v>663</v>
       </c>
       <c r="K13">
-        <v>2.3466800000000001</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -818,34 +818,34 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.45201599999999997</v>
+        <v>133</v>
       </c>
       <c r="C14">
-        <v>0.49275400000000003</v>
+        <v>186</v>
       </c>
       <c r="D14">
-        <v>0.74074399999999996</v>
+        <v>292</v>
       </c>
       <c r="E14">
-        <v>0.89278000000000002</v>
+        <v>335</v>
       </c>
       <c r="F14">
-        <v>1.0670170000000001</v>
+        <v>375</v>
       </c>
       <c r="G14">
-        <v>1.2786979999999999</v>
+        <v>463</v>
       </c>
       <c r="H14">
-        <v>2.0030700000000001</v>
+        <v>515</v>
       </c>
       <c r="I14">
-        <v>1.7188490000000001</v>
+        <v>619</v>
       </c>
       <c r="J14">
-        <v>1.998615</v>
+        <v>708</v>
       </c>
       <c r="K14">
-        <v>2.9680569999999999</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -853,34 +853,34 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0.52385800000000005</v>
+        <v>124</v>
       </c>
       <c r="C15">
-        <v>0.55563499999999999</v>
+        <v>159</v>
       </c>
       <c r="D15">
-        <v>0.83794900000000005</v>
+        <v>275</v>
       </c>
       <c r="E15">
-        <v>0.96277400000000002</v>
+        <v>346</v>
       </c>
       <c r="F15">
-        <v>1.0644480000000001</v>
+        <v>424</v>
       </c>
       <c r="G15">
-        <v>1.3373999999999999</v>
+        <v>473</v>
       </c>
       <c r="H15">
-        <v>1.582837</v>
+        <v>538</v>
       </c>
       <c r="I15">
-        <v>1.7948949999999999</v>
+        <v>571</v>
       </c>
       <c r="J15">
-        <v>1.9517549999999999</v>
+        <v>715</v>
       </c>
       <c r="K15">
-        <v>2.2482220000000002</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -888,34 +888,34 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0.50109700000000001</v>
+        <v>127</v>
       </c>
       <c r="C16">
-        <v>0.58708099999999996</v>
+        <v>199</v>
       </c>
       <c r="D16">
-        <v>0.78595899999999996</v>
+        <v>291</v>
       </c>
       <c r="E16">
-        <v>0.92875099999999999</v>
+        <v>346</v>
       </c>
       <c r="F16">
-        <v>1.058003</v>
+        <v>379</v>
       </c>
       <c r="G16">
-        <v>1.2835490000000001</v>
+        <v>455</v>
       </c>
       <c r="H16">
-        <v>1.5065170000000001</v>
+        <v>554</v>
       </c>
       <c r="I16">
-        <v>1.9170750000000001</v>
+        <v>569</v>
       </c>
       <c r="J16">
-        <v>1.987341</v>
+        <v>623</v>
       </c>
       <c r="K16">
-        <v>2.1699419999999998</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -924,43 +924,43 @@
       </c>
       <c r="B17">
         <f>AVERAGE(B12:B16)</f>
-        <v>0.50064480000000011</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17" si="1">AVERAGE(C12:C16)</f>
-        <v>0.54036600000000001</v>
+        <f>AVERAGE(C12:C16)</f>
+        <v>183</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17" si="2">AVERAGE(D12:D16)</f>
-        <v>0.78205480000000005</v>
+        <f t="shared" ref="D17" si="1">AVERAGE(D12:D16)</f>
+        <v>280</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="3">AVERAGE(E12:E16)</f>
-        <v>0.95274079999999994</v>
+        <f>AVERAGE(E12:E16)</f>
+        <v>379.8</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="4">AVERAGE(F12:F16)</f>
-        <v>1.0712096</v>
+        <f>AVERAGE(F12:F16)</f>
+        <v>397</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17" si="5">AVERAGE(G12:G16)</f>
-        <v>1.3554559999999998</v>
+        <f>AVERAGE(G12:G16)</f>
+        <v>462.8</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="6">AVERAGE(H12:H16)</f>
-        <v>1.6285248000000003</v>
+        <f>AVERAGE(H12:H16)</f>
+        <v>529.79999999999995</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17" si="7">AVERAGE(I12:I16)</f>
-        <v>1.8400488000000004</v>
+        <f t="shared" ref="I17" si="2">AVERAGE(I12:I16)</f>
+        <v>585.20000000000005</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17" si="8">AVERAGE(J12:J16)</f>
-        <v>1.9881344000000003</v>
+        <f>AVERAGE(J12:J16)</f>
+        <v>681.6</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17" si="9">AVERAGE(K12:K16)</f>
-        <v>2.4341254000000001</v>
+        <f>AVERAGE(K12:K16)</f>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1008,34 +1008,43 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0.47382099999999999</v>
+        <v>185</v>
       </c>
       <c r="C21">
-        <v>0.51458800000000005</v>
+        <f>134+87</f>
+        <v>221</v>
       </c>
       <c r="D21">
-        <v>0.72338100000000005</v>
+        <f>178+110</f>
+        <v>288</v>
       </c>
       <c r="E21">
-        <v>0.98805100000000001</v>
+        <f>257+130</f>
+        <v>387</v>
       </c>
       <c r="F21">
-        <v>1.0868660000000001</v>
+        <f>286+171</f>
+        <v>457</v>
       </c>
       <c r="G21">
-        <v>1.315266</v>
+        <f>328+179</f>
+        <v>507</v>
       </c>
       <c r="H21">
-        <v>1.582838</v>
+        <f>366+206</f>
+        <v>572</v>
       </c>
       <c r="I21">
-        <v>1.9116569999999999</v>
+        <f>420+229</f>
+        <v>649</v>
       </c>
       <c r="J21">
-        <v>1.9318919999999999</v>
+        <f>472+329</f>
+        <v>801</v>
       </c>
       <c r="K21">
-        <v>2.1792029999999998</v>
+        <f>529+292</f>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1043,34 +1052,43 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>0.47476699999999999</v>
+        <v>158</v>
       </c>
       <c r="C22">
-        <v>0.50558899999999996</v>
+        <f>114+103</f>
+        <v>217</v>
       </c>
       <c r="D22">
-        <v>0.72565199999999996</v>
+        <f>181+129</f>
+        <v>310</v>
       </c>
       <c r="E22">
-        <v>0.97907900000000003</v>
+        <f>266+125</f>
+        <v>391</v>
       </c>
       <c r="F22">
-        <v>1.172523</v>
+        <f>263+145</f>
+        <v>408</v>
       </c>
       <c r="G22">
-        <v>1.35192</v>
+        <f>293+204</f>
+        <v>497</v>
       </c>
       <c r="H22">
-        <v>1.6085579999999999</v>
+        <f>371+193</f>
+        <v>564</v>
       </c>
       <c r="I22">
-        <v>1.740302</v>
+        <f>415+235</f>
+        <v>650</v>
       </c>
       <c r="J22">
-        <v>2.0341809999999998</v>
+        <f>450+277</f>
+        <v>727</v>
       </c>
       <c r="K22">
-        <v>2.553855</v>
+        <f>531+279</f>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1078,34 +1096,43 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0.50174200000000002</v>
+        <v>180</v>
       </c>
       <c r="C23">
-        <v>0.48377999999999999</v>
+        <f>123+87</f>
+        <v>210</v>
       </c>
       <c r="D23">
-        <v>0.71282100000000004</v>
+        <f>162+120</f>
+        <v>282</v>
       </c>
       <c r="E23">
-        <v>1.093947</v>
+        <f>247+135</f>
+        <v>382</v>
       </c>
       <c r="F23">
-        <v>1.1135109999999999</v>
+        <f>280+152</f>
+        <v>432</v>
       </c>
       <c r="G23">
-        <v>1.3120810000000001</v>
+        <f>298+180</f>
+        <v>478</v>
       </c>
       <c r="H23">
-        <v>1.519323</v>
+        <f>355+216</f>
+        <v>571</v>
       </c>
       <c r="I23">
-        <v>1.7878339999999999</v>
+        <f>383+246</f>
+        <v>629</v>
       </c>
       <c r="J23">
-        <v>1.9924809999999999</v>
+        <f>455+246</f>
+        <v>701</v>
       </c>
       <c r="K23">
-        <v>2.4159999999999999</v>
+        <f>460+286</f>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1113,34 +1140,43 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>0.50140799999999996</v>
+        <v>162</v>
       </c>
       <c r="C24">
-        <v>0.57871499999999998</v>
+        <f>133+103</f>
+        <v>236</v>
       </c>
       <c r="D24">
-        <v>0.77406399999999997</v>
+        <f>229+158</f>
+        <v>387</v>
       </c>
       <c r="E24">
-        <v>1.1180019999999999</v>
+        <f>230+132</f>
+        <v>362</v>
       </c>
       <c r="F24">
-        <v>1.150712</v>
+        <f>295+158</f>
+        <v>453</v>
       </c>
       <c r="G24">
-        <v>1.3505780000000001</v>
+        <f>303+176</f>
+        <v>479</v>
       </c>
       <c r="H24">
-        <v>1.66361</v>
+        <f>378+201</f>
+        <v>579</v>
       </c>
       <c r="I24">
-        <v>1.9151339999999999</v>
+        <f>474+218</f>
+        <v>692</v>
       </c>
       <c r="J24">
-        <v>2.1134170000000001</v>
+        <f>438+276</f>
+        <v>714</v>
       </c>
       <c r="K24">
-        <v>2.1997209999999998</v>
+        <f>514+274</f>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1148,34 +1184,43 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>0.490199</v>
+        <v>116</v>
       </c>
       <c r="C25">
-        <v>0.53350600000000004</v>
+        <f>121+101</f>
+        <v>222</v>
       </c>
       <c r="D25">
-        <v>0.74138000000000004</v>
+        <f>216+100</f>
+        <v>316</v>
       </c>
       <c r="E25">
-        <v>1.0868789999999999</v>
+        <f>221+120</f>
+        <v>341</v>
       </c>
       <c r="F25">
-        <v>1.135351</v>
+        <f>327+157</f>
+        <v>484</v>
       </c>
       <c r="G25">
-        <v>1.3714660000000001</v>
+        <f>282+219</f>
+        <v>501</v>
       </c>
       <c r="H25">
-        <v>1.585348</v>
+        <f>369+217</f>
+        <v>586</v>
       </c>
       <c r="I25">
-        <v>1.7804409999999999</v>
+        <f>437+229</f>
+        <v>666</v>
       </c>
       <c r="J25">
-        <v>2.1330800000000001</v>
+        <f>447+252</f>
+        <v>699</v>
       </c>
       <c r="K25">
-        <v>2.7730220000000001</v>
+        <f>495+271</f>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1184,43 +1229,43 @@
       </c>
       <c r="B26">
         <f>AVERAGE(B21:B25)</f>
-        <v>0.48838740000000003</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26" si="10">AVERAGE(C21:C25)</f>
-        <v>0.52323559999999991</v>
+        <f>AVERAGE(C21:C25)</f>
+        <v>221.2</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26" si="11">AVERAGE(D21:D25)</f>
-        <v>0.73545959999999999</v>
+        <f t="shared" ref="D26" si="3">AVERAGE(D21:D25)</f>
+        <v>316.60000000000002</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="12">AVERAGE(E21:E25)</f>
-        <v>1.0531915999999999</v>
+        <f>AVERAGE(E21:E25)</f>
+        <v>372.6</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="13">AVERAGE(F21:F25)</f>
-        <v>1.1317926</v>
+        <f t="shared" ref="F26" si="4">AVERAGE(F21:F25)</f>
+        <v>446.8</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="14">AVERAGE(G21:G25)</f>
-        <v>1.3402622000000002</v>
+        <f>AVERAGE(G21:G25)</f>
+        <v>492.4</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="15">AVERAGE(H21:H25)</f>
-        <v>1.5919354000000001</v>
+        <f>AVERAGE(H21:H25)</f>
+        <v>574.4</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="16">AVERAGE(I21:I25)</f>
-        <v>1.8270735999999999</v>
+        <f>AVERAGE(I21:I25)</f>
+        <v>657.2</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="17">AVERAGE(J21:J25)</f>
-        <v>2.0410101999999997</v>
+        <f>AVERAGE(J21:J25)</f>
+        <v>728.4</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26" si="18">AVERAGE(K21:K25)</f>
-        <v>2.4243602000000002</v>
+        <f>AVERAGE(K21:K25)</f>
+        <v>786.2</v>
       </c>
     </row>
   </sheetData>
